--- a/archask3.xlsx
+++ b/archask3.xlsx
@@ -182,11 +182,14 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -790,11 +793,11 @@
       <c r="G2">
         <v>0.11</v>
       </c>
-      <c r="H2">
-        <v>0.001</v>
-      </c>
-      <c r="I2">
-        <v>0.001</v>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0.10000000000000001</v>
@@ -853,10 +856,10 @@
         <v>0.11</v>
       </c>
       <c r="H3" s="2">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="I3" s="2">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
@@ -915,7 +918,7 @@
         <v>0.01</v>
       </c>
       <c r="H4" s="2">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -980,7 +983,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J5" t="s">
         <v>24</v>
@@ -1038,11 +1041,11 @@
       <c r="G6" s="3">
         <v>0.11</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.001</v>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <v>0.10000000000000001</v>
@@ -1203,16 +1206,16 @@
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="3">
@@ -1224,11 +1227,11 @@
       <c r="G11" s="3">
         <v>0.11</v>
       </c>
-      <c r="H11" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I11" s="3">
-        <v>0.001</v>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <v>0.10000000000000001</v>
@@ -1290,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="2">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
@@ -1327,16 +1330,16 @@
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="3">
@@ -1348,11 +1351,11 @@
       <c r="G13" s="3">
         <v>0.11</v>
       </c>
-      <c r="H13" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I13" s="3">
-        <v>0.001</v>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>0.10000000000000001</v>
@@ -1451,7 +1454,7 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
     </row>
     <row r="16" ht="14.25"/>
     <row r="17" ht="14.25">
@@ -1539,7 +1542,7 @@
         <v>0.11</v>
       </c>
       <c r="H18" s="2">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="I18" s="2">
         <v>0.01</v>
@@ -1579,16 +1582,16 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E19" s="3">
@@ -1600,11 +1603,11 @@
       <c r="G19" s="3">
         <v>0.11</v>
       </c>
-      <c r="H19" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.001</v>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <v>0.10000000000000001</v>
@@ -1766,16 +1769,16 @@
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="3">
@@ -1787,11 +1790,11 @@
       <c r="G24" s="3">
         <v>0.11</v>
       </c>
-      <c r="H24" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0.001</v>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0.10000000000000001</v>
@@ -1850,7 +1853,7 @@
         <v>0.11</v>
       </c>
       <c r="H25" s="2">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="I25" t="s">
         <v>26</v>
@@ -1890,16 +1893,16 @@
       </c>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="3">
@@ -1911,11 +1914,11 @@
       <c r="G26" s="3">
         <v>0.11</v>
       </c>
-      <c r="H26" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0.001</v>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>0.10000000000000001</v>
@@ -2014,7 +2017,7 @@
       </c>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" ht="14.25"/>
     <row r="30" ht="14.25">
@@ -2080,16 +2083,16 @@
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="3">
@@ -2101,11 +2104,11 @@
       <c r="G31" s="3">
         <v>0.11</v>
       </c>
-      <c r="H31" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0.001</v>
+      <c r="H31" s="4">
+        <v>0</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <v>0.10000000000000001</v>
@@ -2164,7 +2167,7 @@
         <v>0.01</v>
       </c>
       <c r="H32" s="2">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
@@ -2226,7 +2229,7 @@
         <v>0.01</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I33" t="s">
         <v>26</v>
@@ -2266,16 +2269,16 @@
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="3">
@@ -2287,11 +2290,11 @@
       <c r="G34" s="3">
         <v>0.11</v>
       </c>
-      <c r="H34" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0.001</v>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>0</v>
       </c>
       <c r="J34" s="3">
         <v>0.10000000000000001</v>
@@ -2324,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" ht="14.25">
@@ -2514,16 +2517,16 @@
       </c>
     </row>
     <row r="40" ht="14.25">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="3">
@@ -2535,11 +2538,11 @@
       <c r="G40" s="3">
         <v>0.11</v>
       </c>
-      <c r="H40" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0.001</v>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0</v>
       </c>
       <c r="J40" s="3">
         <v>0.10000000000000001</v>
@@ -2700,16 +2703,16 @@
       </c>
     </row>
     <row r="45" ht="14.25">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="3">
@@ -2721,11 +2724,11 @@
       <c r="G45" s="3">
         <v>0.11</v>
       </c>
-      <c r="H45" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0.001</v>
+      <c r="H45" s="4">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0.10000000000000001</v>
@@ -2772,16 +2775,16 @@
       </c>
     </row>
     <row r="48" ht="14.25">
-      <c r="A48" t="s">
+      <c r="A48" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="3">
@@ -2793,11 +2796,11 @@
       <c r="G48" s="3">
         <v>0.11</v>
       </c>
-      <c r="H48" s="3">
-        <v>0.001</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0.001</v>
+      <c r="H48" s="4">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0.10000000000000001</v>
